--- a/装修流程+预算 0509.xlsx
+++ b/装修流程+预算 0509.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\3D设计图\Decoration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Decoration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7250"/>
   </bookViews>
   <sheets>
     <sheet name="装修流程" sheetId="1" r:id="rId1"/>
@@ -1110,12 +1110,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,6 +1125,45 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,45 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,31 +1516,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="23" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="23" customWidth="1"/>
     <col min="3" max="3" width="15" style="23" customWidth="1"/>
-    <col min="4" max="4" width="42.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="41.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="41.90625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" style="24" customWidth="1"/>
     <col min="7" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1557,8 +1557,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1572,8 +1572,8 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1581,8 +1581,8 @@
       <c r="D4" s="26"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1590,8 +1590,8 @@
       <c r="D5" s="26"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1601,8 +1601,8 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1612,14 +1612,14 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="27"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
@@ -1630,14 +1630,14 @@
       <c r="D9" s="26"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="27"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -1646,14 +1646,14 @@
       <c r="D11" s="26"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="3" t="s">
         <v>19</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="10" t="s">
         <v>22</v>
@@ -1679,15 +1679,15 @@
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -1703,8 +1703,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
       <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
@@ -1718,8 +1718,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1731,14 +1731,14 @@
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="10" t="s">
         <v>40</v>
@@ -1764,7 +1764,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="1:5" ht="99" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="101.5" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="29" t="s">
         <v>41</v>
@@ -1779,7 +1779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="66" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="10" t="s">
         <v>45</v>
@@ -1794,7 +1794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="10" t="s">
         <v>49</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" ht="99" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="10" t="s">
         <v>51</v>
@@ -1820,7 +1820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="10" t="s">
         <v>55</v>
@@ -1833,7 +1833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="10" t="s">
         <v>58</v>
@@ -1848,7 +1848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="10" t="s">
         <v>61</v>
@@ -1859,7 +1859,7 @@
       <c r="D28" s="26"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="10" t="s">
         <v>62</v>
@@ -1874,15 +1874,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -1896,8 +1896,8 @@
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
       <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
@@ -1909,8 +1909,8 @@
       </c>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
       <c r="B33" s="10" t="s">
         <v>71</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="D33" s="26"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
       <c r="B34" s="10" t="s">
         <v>72</v>
       </c>
@@ -1933,8 +1933,8 @@
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
       <c r="B35" s="10" t="s">
         <v>74</v>
       </c>
@@ -1946,8 +1946,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
       <c r="B36" s="10" t="s">
         <v>76</v>
       </c>
@@ -1955,8 +1955,8 @@
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
       <c r="B37" s="10" t="s">
         <v>77</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:5" ht="66" x14ac:dyDescent="0.15">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:5" ht="72.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
       <c r="B38" s="29" t="s">
         <v>78</v>
       </c>
@@ -1975,14 +1975,14 @@
       </c>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="27"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>80</v>
       </c>
@@ -1995,71 +1995,69 @@
       <c r="D40" s="26"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="27"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="32">
-        <v>1</v>
-      </c>
+    <row r="42" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="34"/>
       <c r="E42" s="33"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="34"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="34"/>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="34"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="36"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
@@ -2090,39 +2088,39 @@
       <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="13.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="8" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="12.875" style="7" customWidth="1"/>
-    <col min="7" max="9" width="8.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="7" customWidth="1"/>
+    <col min="7" max="9" width="8.26953125" style="7" customWidth="1"/>
     <col min="10" max="13" width="9" style="7"/>
-    <col min="14" max="14" width="27.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="27.36328125" style="7" customWidth="1"/>
     <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>84</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>96</v>
       </c>
@@ -2188,7 +2186,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="10" t="s">
         <v>22</v>
@@ -2206,7 +2204,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -2224,7 +2222,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="10" t="s">
         <v>29</v>
@@ -2242,7 +2240,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="10" t="s">
         <v>99</v>
@@ -2260,7 +2258,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2276,7 +2274,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>100</v>
       </c>
@@ -2298,7 +2296,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="51"/>
       <c r="C10" s="10"/>
@@ -2314,7 +2312,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="51"/>
       <c r="C11" s="10"/>
@@ -2330,7 +2328,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="51"/>
       <c r="C12" s="10"/>
@@ -2346,7 +2344,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="51"/>
       <c r="C13" s="10" t="s">
@@ -2364,7 +2362,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="51" t="s">
         <v>104</v>
@@ -2384,7 +2382,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="51"/>
       <c r="C15" s="10" t="s">
@@ -2402,7 +2400,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="51"/>
       <c r="C16" s="10" t="s">
@@ -2420,9 +2418,9 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2440,9 +2438,9 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
-      <c r="B18" s="53"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10" t="s">
         <v>110</v>
       </c>
@@ -2458,9 +2456,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="10" t="s">
         <v>111</v>
       </c>
@@ -2476,9 +2474,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="10" t="s">
         <v>112</v>
       </c>
@@ -2494,9 +2492,9 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="53"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="10" t="s">
         <v>113</v>
       </c>
@@ -2512,9 +2510,9 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
-      <c r="B22" s="53"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="10" t="s">
         <v>114</v>
       </c>
@@ -2530,9 +2528,9 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="53"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="10" t="s">
         <v>115</v>
       </c>
@@ -2548,9 +2546,9 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
-      <c r="B24" s="54"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="10" t="s">
         <v>116</v>
       </c>
@@ -2566,7 +2564,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="51" t="s">
         <v>117</v>
@@ -2586,7 +2584,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="51"/>
       <c r="C26" s="10" t="s">
@@ -2604,7 +2602,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="51"/>
       <c r="C27" s="10" t="s">
@@ -2622,7 +2620,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" s="51"/>
       <c r="C28" s="10" t="s">
@@ -2640,7 +2638,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="51"/>
       <c r="C29" s="10" t="s">
@@ -2658,7 +2656,7 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="51"/>
       <c r="C30" s="10" t="s">
@@ -2676,7 +2674,7 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="51"/>
       <c r="C31" s="8" t="s">
@@ -2694,9 +2692,9 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -2714,9 +2712,9 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
-      <c r="B33" s="53"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="10" t="s">
         <v>127</v>
       </c>
@@ -2732,9 +2730,9 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="10" t="s">
         <v>128</v>
       </c>
@@ -2750,9 +2748,9 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="46"/>
-      <c r="B35" s="54"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
@@ -2768,9 +2766,9 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="44" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="16" t="s">
@@ -2788,9 +2786,9 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
-      <c r="B37" s="54"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="12"/>
@@ -2804,7 +2802,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="10" t="s">
         <v>132</v>
@@ -2824,7 +2822,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2840,7 +2838,7 @@
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>134</v>
       </c>
@@ -2860,7 +2858,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
       <c r="B41" s="10" t="s">
         <v>136</v>
@@ -2878,9 +2876,9 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="42" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -2898,9 +2896,9 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
-      <c r="B43" s="53"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="10" t="s">
         <v>139</v>
       </c>
@@ -2916,9 +2914,9 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
-      <c r="B44" s="53"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="10" t="s">
         <v>140</v>
       </c>
@@ -2934,9 +2932,9 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
-      <c r="B45" s="53"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="10" t="s">
         <v>141</v>
       </c>
@@ -2952,9 +2950,9 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="46"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="10" t="s">
         <v>142</v>
       </c>
@@ -2970,9 +2968,9 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
-      <c r="B47" s="54"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="10" t="s">
         <v>143</v>
       </c>
@@ -2988,7 +2986,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -3004,7 +3002,7 @@
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>144</v>
       </c>
@@ -3026,7 +3024,7 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="46"/>
       <c r="B50" s="10" t="s">
         <v>147</v>
@@ -3046,7 +3044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="46"/>
       <c r="B51" s="10" t="s">
         <v>149</v>
@@ -3064,9 +3062,9 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="46"/>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="42" t="s">
         <v>150</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -3084,9 +3082,9 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="46"/>
-      <c r="B53" s="53"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="10" t="s">
         <v>152</v>
       </c>
@@ -3102,9 +3100,9 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="29" x14ac:dyDescent="0.25">
       <c r="A54" s="46"/>
-      <c r="B54" s="54"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="10" t="s">
         <v>153</v>
       </c>
@@ -3122,7 +3120,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
       <c r="B55" s="16" t="s">
         <v>155</v>
@@ -3140,7 +3138,7 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="29" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="16" t="s">
         <v>156</v>
@@ -3158,7 +3156,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -3174,7 +3172,7 @@
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>157</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="46"/>
       <c r="B59" s="10" t="s">
         <v>161</v>
@@ -3216,7 +3214,7 @@
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="46"/>
       <c r="B60" s="10" t="s">
         <v>162</v>
@@ -3234,7 +3232,7 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="29" x14ac:dyDescent="0.25">
       <c r="A61" s="46"/>
       <c r="B61" s="10" t="s">
         <v>163</v>
@@ -3254,7 +3252,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
       <c r="B62" s="10" t="s">
         <v>165</v>
@@ -3272,9 +3270,9 @@
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="46"/>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="52" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="16" t="s">
@@ -3292,9 +3290,9 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
-      <c r="B64" s="55"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="10" t="s">
         <v>168</v>
       </c>
@@ -3310,7 +3308,7 @@
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -3326,11 +3324,11 @@
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="53" t="s">
         <v>170</v>
       </c>
       <c r="C66" s="17" t="s">
@@ -3348,9 +3346,9 @@
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="17" t="s">
         <v>172</v>
       </c>
@@ -3366,9 +3364,9 @@
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C68" s="20" t="s">
@@ -3386,9 +3384,9 @@
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
-      <c r="B69" s="53"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="20" t="s">
         <v>175</v>
       </c>
@@ -3404,9 +3402,9 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
-      <c r="B70" s="53"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="20" t="s">
         <v>176</v>
       </c>
@@ -3422,9 +3420,9 @@
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="20" t="s">
         <v>177</v>
       </c>
@@ -3440,9 +3438,9 @@
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
-      <c r="B72" s="54"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="20" t="s">
         <v>178</v>
       </c>
@@ -3458,9 +3456,9 @@
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -3478,9 +3476,9 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
-      <c r="B74" s="53"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="20" t="s">
         <v>181</v>
       </c>
@@ -3496,9 +3494,9 @@
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
-      <c r="B75" s="53"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="20" t="s">
         <v>182</v>
       </c>
@@ -3514,9 +3512,9 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="20" t="s">
         <v>183</v>
       </c>
@@ -3532,9 +3530,9 @@
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
-      <c r="B77" s="53"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="10" t="s">
         <v>184</v>
       </c>
@@ -3550,9 +3548,9 @@
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
-      <c r="B78" s="53"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="10" t="s">
         <v>185</v>
       </c>
@@ -3568,9 +3566,9 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
-      <c r="B79" s="54"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="10" t="s">
         <v>186</v>
       </c>
@@ -3586,9 +3584,9 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="42" t="s">
         <v>187</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -3606,9 +3604,9 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="50"/>
-      <c r="B81" s="54"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="10" t="s">
         <v>189</v>
       </c>
@@ -3624,7 +3622,7 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -3640,11 +3638,11 @@
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="42" t="s">
         <v>191</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -3662,9 +3660,9 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="46"/>
-      <c r="B84" s="53"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="10" t="s">
         <v>193</v>
       </c>
@@ -3680,9 +3678,9 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="46"/>
-      <c r="B85" s="53"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="10" t="s">
         <v>194</v>
       </c>
@@ -3698,9 +3696,9 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="46"/>
-      <c r="B86" s="54"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="10" t="s">
         <v>195</v>
       </c>
@@ -3716,9 +3714,9 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="46"/>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="42" t="s">
         <v>196</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -3736,9 +3734,9 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="46"/>
-      <c r="B88" s="54"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="10" t="s">
         <v>198</v>
       </c>
@@ -3754,9 +3752,9 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="46"/>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="42" t="s">
         <v>199</v>
       </c>
       <c r="C89" s="10" t="s">
@@ -3774,9 +3772,9 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="46"/>
-      <c r="B90" s="53"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="10" t="s">
         <v>201</v>
       </c>
@@ -3792,9 +3790,9 @@
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="46"/>
-      <c r="B91" s="54"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="10" t="s">
         <v>202</v>
       </c>
@@ -3810,7 +3808,7 @@
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="10" t="s">
         <v>203</v>
@@ -3830,7 +3828,7 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -3846,11 +3844,11 @@
       <c r="M93" s="14"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C94" s="10" t="s">
@@ -3868,9 +3866,9 @@
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="46"/>
-      <c r="B95" s="53"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="10" t="s">
         <v>207</v>
       </c>
@@ -3886,9 +3884,9 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" ht="29" x14ac:dyDescent="0.25">
       <c r="A96" s="46"/>
-      <c r="B96" s="54"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="10" t="s">
         <v>208</v>
       </c>
@@ -3904,7 +3902,7 @@
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="46"/>
       <c r="B97" s="10" t="s">
         <v>209</v>
@@ -3922,7 +3920,7 @@
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="46"/>
       <c r="B98" s="16"/>
       <c r="C98" s="10"/>
@@ -3938,7 +3936,7 @@
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="46"/>
       <c r="B99" s="16"/>
       <c r="C99" s="10"/>
@@ -3954,7 +3952,7 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -3969,7 +3967,7 @@
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -3985,7 +3983,7 @@
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -4001,7 +3999,7 @@
       <c r="M102" s="21"/>
       <c r="N102" s="21"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -4017,7 +4015,7 @@
       <c r="M103" s="21"/>
       <c r="N103" s="21"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -4033,7 +4031,7 @@
       <c r="M104" s="21"/>
       <c r="N104" s="21"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -4049,7 +4047,7 @@
       <c r="M105" s="21"/>
       <c r="N105" s="21"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -4065,7 +4063,7 @@
       <c r="M106" s="21"/>
       <c r="N106" s="21"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -4081,7 +4079,7 @@
       <c r="M107" s="21"/>
       <c r="N107" s="21"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -4097,7 +4095,7 @@
       <c r="M108" s="21"/>
       <c r="N108" s="21"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
@@ -4113,7 +4111,7 @@
       <c r="M109" s="21"/>
       <c r="N109" s="21"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -4129,7 +4127,7 @@
       <c r="M110" s="21"/>
       <c r="N110" s="21"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -4145,7 +4143,7 @@
       <c r="M111" s="21"/>
       <c r="N111" s="21"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -4161,7 +4159,7 @@
       <c r="M112" s="21"/>
       <c r="N112" s="21"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -4177,7 +4175,7 @@
       <c r="M113" s="21"/>
       <c r="N113" s="21"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -4193,7 +4191,7 @@
       <c r="M114" s="21"/>
       <c r="N114" s="21"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -4209,7 +4207,7 @@
       <c r="M115" s="21"/>
       <c r="N115" s="21"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -4225,7 +4223,7 @@
       <c r="M116" s="21"/>
       <c r="N116" s="21"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -4243,11 +4241,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A49:A56"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A66:A81"/>
     <mergeCell ref="A83:A92"/>
@@ -4264,11 +4262,11 @@
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B72"/>
     <mergeCell ref="B73:B79"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B94:B96"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4284,19 +4282,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="67.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="43"/>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4304,7 +4302,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>212</v>
       </c>
@@ -4312,7 +4310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>104</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -4328,11 +4326,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
